--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -70,17 +70,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -453,73 +459,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="17.09" customWidth="1" style="4" min="2" max="2"/>
+    <col width="17.19" customWidth="1" style="4" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Acc No.</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>DOB</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Acc/type</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Cur Bal</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PIN</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Athiyan S</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>37607</v>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Ramesh Murugasan</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>33488</v>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Saving</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1234</v>
+      <c r="E2" s="4" t="n">
+        <v>91111</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="5">
+      <c r="C3" s="6" t="n">
+        <v>33488</v>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>99999</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>8765</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>